--- a/MomStatusFile/MOM.xlsx
+++ b/MomStatusFile/MOM.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8695882E-3DB1-458A-B396-FD0652E1E4C0}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{965558DB-5F4B-4B43-B650-EF30CD132950}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alpha Achievers" sheetId="1" r:id="rId1"/>
+    <sheet name="Beta Achievers" sheetId="2" r:id="rId1"/>
+    <sheet name="Alpha Achievers one" sheetId="3" r:id="rId2"/>
+    <sheet name="Alpha Achievers two" sheetId="11" r:id="rId3"/>
+    <sheet name="Alpha Achievers three" sheetId="10" r:id="rId4"/>
+    <sheet name="Alpha Achievers four" sheetId="9" r:id="rId5"/>
+    <sheet name="Alpha Achievers five" sheetId="8" r:id="rId6"/>
+    <sheet name="Alpha Achievers six" sheetId="7" r:id="rId7"/>
+    <sheet name="Alpha Achievers seven" sheetId="6" r:id="rId8"/>
+    <sheet name="Alpha Achievers eight" sheetId="5" r:id="rId9"/>
+    <sheet name="Alpha Achievers nine" sheetId="4" r:id="rId10"/>
+    <sheet name="Alpha Achievers ten" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="15">
   <si>
     <t>Resource Name</t>
   </si>
@@ -73,6 +83,9 @@
   </si>
   <si>
     <t>Retest the tickets of Mobile bugs (trulyhome)</t>
+  </si>
+  <si>
+    <t>Retest the tickets of Mobile bugs (home)</t>
   </si>
 </sst>
 </file>
@@ -267,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -305,11 +318,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="77">
     <dxf>
       <font>
         <b val="0"/>
@@ -478,6 +500,1686 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -492,8 +2194,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{735B9D7A-0A09-4A9B-B6C1-985E5B6477D0}" name="Table13" displayName="Table13" ref="A1:D5" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="74" tableBorderDxfId="75" totalsRowBorderDxfId="73">
   <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D86A6CCE-1DB4-4F67-A4C0-228BFF1F9750}" name="Resource Name" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{FCF55146-F785-473B-8038-A3F61C1E0E65}" name="Project Name" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{6623DA93-6E12-416D-8EF8-3AC712A86D82}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{FB0D8D8C-656D-4D80-B586-B953815C0DCD}" name="Estimated Hours" dataDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8F2AD3DF-A30B-4303-935D-D51FED7F6C06}" name="Table15" displayName="Table15" ref="A1:D5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{74DCC348-B48D-42C3-A692-51C23AD24A92}" name="Resource Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{64316584-6C3D-4462-A218-925BA8AD0B58}" name="Project Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E41971A7-D819-4C25-855F-A71A5BCE217E}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{04BB006F-F780-4093-9376-46823261802D}" name="Estimated Hours" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:D21" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -504,6 +2242,150 @@
     <tableColumn id="2" xr3:uid="{CFACAB64-8004-480E-80D2-88F0666693DA}" name="Project Name" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{4AE8F4CD-6BC2-4162-99AB-55C9E3931E1A}" name="Task"/>
     <tableColumn id="4" xr3:uid="{99689F9E-D8B5-4680-8143-1B75BDD08CCF}" name="Estimated Hours" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF20A260-410E-4F02-A3AA-7BEA27FC5371}" name="Table14" displayName="Table14" ref="A1:D5" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="67" tableBorderDxfId="68" totalsRowBorderDxfId="66">
+  <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{63517C71-711E-4216-9C2D-748E1FDFF66D}" name="Resource Name" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{5545E019-A1FD-4A0A-A723-D9FA0562DFC4}" name="Project Name" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{80E3D062-2AAA-4345-95E5-EAE033E523E4}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{B7308795-E995-4F35-A7CC-9E169D01A378}" name="Estimated Hours" dataDxfId="63"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5E1F304B-8420-42BB-9444-E8128805F3F3}" name="Table156789101112" displayName="Table156789101112" ref="A1:D5" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="60" tableBorderDxfId="61" totalsRowBorderDxfId="59">
+  <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D3395A6C-C462-41C5-9E3B-28AC4AA1FDC9}" name="Resource Name" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{71BCDE9E-A374-4138-AC48-18DE6EB67261}" name="Project Name" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{2ED35739-BAED-466B-B567-5BE152C619F3}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{89445C83-4F2D-43B1-91D9-0EC59CD35EBD}" name="Estimated Hours" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CF9C4C38-D4FC-4EEA-8573-744BF37A8B88}" name="Table1567891011" displayName="Table1567891011" ref="A1:D5" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="53" tableBorderDxfId="54" totalsRowBorderDxfId="52">
+  <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7A855117-93FC-4B1B-B7D8-11C7A3C9A423}" name="Resource Name" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{50D0EDA3-5133-487A-83CB-07CC375DEA57}" name="Project Name" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{DC858172-B844-4DE8-A70D-6336245D2D8F}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{D154BC02-67EB-481B-B3A3-1EA5C4B0AA40}" name="Estimated Hours" dataDxfId="49"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{690A1C58-F389-4A8F-B61C-D8D086E111BF}" name="Table15678910" displayName="Table15678910" ref="A1:D5" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
+  <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0535A2B9-077B-4219-9EA4-4A2B145FF112}" name="Resource Name" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{8C51643A-2EA5-4E72-84B4-907B76FAEF3C}" name="Project Name" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{C753BDC5-97A0-4FD8-9FA5-A0EFE044F85B}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{553CDCCA-6B35-4C0A-A816-F255FD907223}" name="Estimated Hours" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7319EC7-B822-4782-AEEB-3310252435FE}" name="Table156789" displayName="Table156789" ref="A1:D5" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38">
+  <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5463DA15-6184-400C-873E-7567D0466E51}" name="Resource Name" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{2ED7D3CF-5DC7-4D69-97FF-30B883CC48AA}" name="Project Name" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{BF5AE717-DC13-41B8-9BD6-B236942E2927}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{2C1E89D6-F9EC-4C69-9167-6DEBD459B8BD}" name="Estimated Hours" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B0650295-5E41-4784-96C6-F8F3B010E88C}" name="Table15678" displayName="Table15678" ref="A1:D5" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
+  <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B83B9914-F2D6-4A15-94E5-CF486E0C1EC1}" name="Resource Name" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{6CDD1380-1A95-4401-BCBE-B6FE7647AE1A}" name="Project Name" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{1F72479B-CE51-4CA9-A43C-DFDE6E54721E}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{B5F74626-871B-4EBB-B361-AB1B0B5DD1E2}" name="Estimated Hours" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2D112F75-D5D4-47F8-A149-7EAF276C0922}" name="Table1567" displayName="Table1567" ref="A1:D5" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+  <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6EC782F3-70CD-4490-9110-766CF46686AC}" name="Resource Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{DEDCDF17-E5D5-4486-B07B-58DA34012BAB}" name="Project Name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{E8D2F0A9-A8DD-4E4A-ACD7-B8A9C3C9184F}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{EDBAF784-F9D1-4739-A3E9-BCBEE868B7B2}" name="Estimated Hours" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D516A833-B3F9-4559-BDC3-4CCCF6A0C837}" name="Table156" displayName="Table156" ref="A1:D5" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{87EC6858-190A-4E79-9DBD-995CD414A68D}" name="Resource Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{43DF53B8-D805-4754-BA7D-EA4C6CC9406C}" name="Project Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{A872D9EC-93B3-40B4-AD9D-C2A2DA54C823}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{7702C3DA-FFAB-4663-AA33-1D8CF00F417D}" name="Estimated Hours" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -825,11 +2707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114F79BF-7C50-4F02-8818-44A4C5510B22}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -916,4 +2798,1150 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB457C36-CDDF-41C5-8552-EDAEE8FA9EDE}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5">
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5">
+      <c r="A21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="15">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0ED220-A928-436C-87DF-662C46056F7E}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F3A8D3-C442-4F3D-ADDF-015758FED1BF}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB613E28-D322-46B3-912A-63398637A7CB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E901F2B-D339-4539-A60B-6D6B1BCA2616}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D089257-C5B1-4E93-A7C7-3BCD2D9E0AA6}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C51E54-F8B7-4BEB-A360-828C21ADD640}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53A380D-A1B3-4093-8A1A-ADC1C767A159}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC0F09-638A-4CE8-8D9F-3CF1C7817DB4}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/MomStatusFile/MOM.xlsx
+++ b/MomStatusFile/MOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BCD905E-06E3-4B65-AFFA-366378C10EBD}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02B9957B-549A-477C-9D72-1F4022DE0D0E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Allego</t>
   </si>
   <si>
-    <t>On Leave</t>
+    <t>I will continue working on the automation of assigned CI tickets(ACI-2896).</t>
   </si>
   <si>
     <t>Deepesh Barsiwal</t>
@@ -66,13 +66,13 @@
     <t>Hanumant Bhojane</t>
   </si>
   <si>
-    <t>I will work on iOS ticket number ABT-16462.</t>
+    <t>I will work on iOS regression fixes and will create PR also After scrum i will connect with Amrit for my doubts on allego</t>
   </si>
   <si>
     <t>Suraj Ashok Kadav</t>
   </si>
   <si>
-    <t>I will work on client interview preparation and Also take mock interview.</t>
+    <t>I will work on client interview preparation and also attain client interview.</t>
   </si>
 </sst>
 </file>
@@ -856,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -873,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="30.75">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>

--- a/MomStatusFile/MOM.xlsx
+++ b/MomStatusFile/MOM.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28715"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02B9957B-549A-477C-9D72-1F4022DE0D0E}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8698A689-B3BC-4DE4-B0F9-2395751D9CD9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alpha Achievers" sheetId="11" r:id="rId1"/>
+    <sheet name="The AutoMates" sheetId="15" r:id="rId1"/>
+    <sheet name="Test Titans" sheetId="16" r:id="rId2"/>
+    <sheet name="PerfOps Squad" sheetId="13" r:id="rId3"/>
+    <sheet name="Alpha Achievers" sheetId="11" r:id="rId4"/>
+    <sheet name="Tester Army" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Resource Name</t>
   </si>
@@ -45,13 +49,165 @@
     <t>Estimated Hours</t>
   </si>
   <si>
+    <t>Diwakar Thakur</t>
+  </si>
+  <si>
+    <t>Assurant-DLS</t>
+  </si>
+  <si>
+    <t>Will do the regression on  ATT Dealer
+Will do the regression on ATT Sofi
+Will connect with regression team</t>
+  </si>
+  <si>
+    <t>Shaifali Sharma</t>
+  </si>
+  <si>
+    <t>Reviewing PR, Team Queries, Work with coverage sheet</t>
+  </si>
+  <si>
+    <t>Adesh Sharawat</t>
+  </si>
+  <si>
+    <t>Will do the regression for ATT B2B, B2B Verizon and Tracfone.
+Will execute b2b kitting feed scenarios.
+Will do the debug and rerun failures.
+Will connect with regression team.</t>
+  </si>
+  <si>
+    <t>Arokiya Renit D</t>
+  </si>
+  <si>
+    <t>Will work on Regression 25.2 for Google, Target &amp; Koodo</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>Will work on Regression 25.2
+Team connects</t>
+  </si>
+  <si>
+    <t>Sourav Monga</t>
+  </si>
+  <si>
+    <t>Will continue work on CEW regression
+Will connect with Sangeeta for the regression</t>
+  </si>
+  <si>
+    <t>Dipak Chougule</t>
+  </si>
+  <si>
+    <t>Will work on Regression 25.2
+Will debug and rerun failures
+ATT Opus c care and vzw PIF</t>
+  </si>
+  <si>
+    <t>Mohit Kumar</t>
+  </si>
+  <si>
+    <t>Working on Regression ATT CE Corporate 25.2 release and validate reports
+Working on Regression for Freedom 25.2 release and validate reports
+Will connect with regression team</t>
+  </si>
+  <si>
+    <t>Sangeeta Mehra</t>
+  </si>
+  <si>
+    <t>Will work on regression for CEW
+Will connect with Sourav sir for my queries
+Will connect with regression team</t>
+  </si>
+  <si>
+    <t>Arshdeep Singh</t>
+  </si>
+  <si>
+    <t>Assurant-DLS
+Pocket Geek</t>
+  </si>
+  <si>
+    <t>Will work on Device Condition session migration to item details for both CE and CEW.
+Will take scheduled interview.</t>
+  </si>
+  <si>
+    <t>Rishab</t>
+  </si>
+  <si>
+    <t>Bugbot</t>
+  </si>
+  <si>
+    <t>Requirements gathering in assigning roles and privileges to the user from admin panel and api creation.</t>
+  </si>
+  <si>
+    <t>Akhil</t>
+  </si>
+  <si>
+    <t>EasyCrypto</t>
+  </si>
+  <si>
+    <t>Working on functional testing on Easy Crypto application.</t>
+  </si>
+  <si>
+    <t>Mohit</t>
+  </si>
+  <si>
+    <t>Allego</t>
+  </si>
+  <si>
+    <t>Working on the test case execution</t>
+  </si>
+  <si>
+    <t>Harsha Kapila</t>
+  </si>
+  <si>
+    <t>Assurant</t>
+  </si>
+  <si>
+    <t>Regression,PBIs, Automation</t>
+  </si>
+  <si>
+    <t>Jasdeep Singh</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>VAPT on Cerina Admin Web Portal</t>
+  </si>
+  <si>
+    <t>Raghav</t>
+  </si>
+  <si>
+    <t>WIll work on regression execution for 25.2 release.
+Will work on Executions on AWS Distributed load test Environmnet.
+Will attend morning and Evening Scrum.</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Assurant
+(Backup resource)&amp;BugBot</t>
+  </si>
+  <si>
+    <t>Will do testing of auto form filler module
+Will write test cases for Reptor Gen module.</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Assurant
+(Backup resource) &amp; Ceretax</t>
+  </si>
+  <si>
+    <t>will do deployments on Auto &amp; Perf if required, will work on the user stories provided by Anurag for ceretax project.</t>
+  </si>
+  <si>
     <t>Amritpal Singh</t>
   </si>
   <si>
-    <t>Allego</t>
-  </si>
-  <si>
-    <t>I will continue working on the automation of assigned CI tickets(ACI-2896).</t>
+    <t>I Will review and fix CI and Refract regression failures</t>
   </si>
   <si>
     <t>Deepesh Barsiwal</t>
@@ -60,26 +216,47 @@
     <t>Automation</t>
   </si>
   <si>
-    <t>I will work on ios test cases of Allego project.</t>
+    <t>Today I will prepare for interview.</t>
   </si>
   <si>
     <t>Hanumant Bhojane</t>
   </si>
   <si>
-    <t>I will work on iOS regression fixes and will create PR also After scrum i will connect with Amrit for my doubts on allego</t>
+    <t>I will add stability updates for recent iOS smoke and regression failures</t>
   </si>
   <si>
     <t>Suraj Ashok Kadav</t>
   </si>
   <si>
-    <t>I will work on client interview preparation and also attain client interview.</t>
+    <t>I will work on Client setup and Explore PG Home Applications.</t>
+  </si>
+  <si>
+    <t>Gagan Sharma</t>
+  </si>
+  <si>
+    <t>Tevio</t>
+  </si>
+  <si>
+    <t>Create Test Cases for Admin , Delivery Management module</t>
+  </si>
+  <si>
+    <t>Devvrat Soam</t>
+  </si>
+  <si>
+    <t>Scramble</t>
+  </si>
+  <si>
+    <t>I am working on User as a manager account and updating test cases.</t>
+  </si>
+  <si>
+    <t>Nitin Lamba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +300,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -134,11 +348,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -166,12 +380,76 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -192,58 +470,12 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -261,49 +493,338 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="20">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
+      </font>
+      <alignment horizontal="left"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -312,153 +833,14 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <name val="Aptos"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
         <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF242424"/>
-        <name val="Aptos"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -483,7 +865,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5E1F304B-8420-42BB-9444-E8128805F3F3}" name="Table156789101112" displayName="Table156789101112" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BC8E4593-4888-490E-AD6B-2D11CE7B0854}" name="Table1567891011128" displayName="Table1567891011128" ref="A1:D12" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+  <autoFilter ref="A1:D12" xr:uid="{BC8E4593-4888-490E-AD6B-2D11CE7B0854}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B1342C5B-B078-4186-AA91-92D8F326AE1E}" name="Resource Name"/>
+    <tableColumn id="2" xr3:uid="{D5577FE3-1391-4CF5-9BF6-5FA806B04FBA}" name="Project Name"/>
+    <tableColumn id="3" xr3:uid="{485CF668-B5D7-4562-A9DD-9B818A830ED7}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{43DC92BB-7010-41D1-A4DD-276AB9FFA5AF}" name="Estimated Hours"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{575452B0-848D-4ABB-A9B9-DE6A6FD08C6F}" name="Table15678910111224" displayName="Table15678910111224" ref="A1:D6" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:D6" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4FCDF0F2-0889-42FF-8362-C6AB0BFA28FA}" name="Resource Name"/>
+    <tableColumn id="2" xr3:uid="{E750DEFE-0834-438F-84BB-9F8ABBA324E6}" name="Project Name"/>
+    <tableColumn id="3" xr3:uid="{AB507738-B9A4-4912-90E8-A4EC965249EE}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{869F11FD-DB21-41DF-8439-33DFFDD9E710}" name="Estimated Hours"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFD2250E-8511-40D3-B74B-359DCCD030B6}" name="Table15678910111223" displayName="Table15678910111223" ref="A1:D4" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:D4" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F48EF186-10DE-40C4-842D-0BF2D26974D3}" name="Resource Name"/>
+    <tableColumn id="2" xr3:uid="{C3EE0001-FDBD-4322-B13D-34CEAE56314B}" name="Project Name"/>
+    <tableColumn id="3" xr3:uid="{1C14A291-9208-4169-B3BC-12915385DF93}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{388B8991-BDD3-4FE3-9A42-B159A822ABC6}" name="Estimated Hours"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5E1F304B-8420-42BB-9444-E8128805F3F3}" name="Table156789101112" displayName="Table156789101112" ref="A1:D5" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D5" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -491,10 +927,28 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3395A6C-C462-41C5-9E3B-28AC4AA1FDC9}" name="Resource Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{71BCDE9E-A374-4138-AC48-18DE6EB67261}" name="Project Name" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D3395A6C-C462-41C5-9E3B-28AC4AA1FDC9}" name="Resource Name"/>
+    <tableColumn id="2" xr3:uid="{71BCDE9E-A374-4138-AC48-18DE6EB67261}" name="Project Name"/>
     <tableColumn id="3" xr3:uid="{2ED35739-BAED-466B-B567-5BE152C619F3}" name="Task"/>
-    <tableColumn id="4" xr3:uid="{89445C83-4F2D-43B1-91D9-0EC59CD35EBD}" name="Estimated Hours" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{89445C83-4F2D-43B1-91D9-0EC59CD35EBD}" name="Estimated Hours"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD23B500-DE26-4CFC-BA92-6BACA7E45BC0}" name="Table1567891011122" displayName="Table1567891011122" ref="A1:D4" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+  <autoFilter ref="A1:D4" xr:uid="{66A2BC83-B0CD-49C6-BDB5-F3161D079A17}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FC6782E8-4F11-47D3-84A3-BB65C60B2A6A}" name="Resource Name"/>
+    <tableColumn id="2" xr3:uid="{640189F6-84FB-471E-96B2-55574E863921}" name="Project Name"/>
+    <tableColumn id="3" xr3:uid="{D1E1A984-36B3-4882-B197-4A845994078D}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{4464483E-0D63-4F05-8E51-5BD4397F10BF}" name="Estimated Hours"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -816,18 +1270,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F3A8D3-C442-4F3D-ADDF-015758FED1BF}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23FE183-C29E-4656-95AF-0CEEDEA2BF3A}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="3" max="3" width="134.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45.75">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.75">
+      <c r="A4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29.25">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.25">
+      <c r="A7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.5">
+      <c r="A8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.5">
+      <c r="A9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.5">
+      <c r="A10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29.25">
+      <c r="A11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29.25">
+      <c r="A12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9482D499-6AB2-48F0-AFFC-0038BBD597EB}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="138.140625" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -846,58 +1490,324 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30.75">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="A3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="A5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="21">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72CC1A9-5AE2-4BAE-8D13-9153857A2787}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="138.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45.75">
+      <c r="A2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29.25">
+      <c r="A3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29.25">
+      <c r="A4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="33">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F3A8D3-C442-4F3D-ADDF-015758FED1BF}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="147.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="18">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6767D1-4BE6-4CBC-8BF6-419ED221216B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="138.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="34">
         <v>8</v>
       </c>
     </row>
